--- a/8_code/ai-backend/data/test_sets/return-eligibility-test-set.xlsx
+++ b/8_code/ai-backend/data/test_sets/return-eligibility-test-set.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Is my Order ID 3231 refundable?</t>
+          <t>Is my Order ID 1588 refundable?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 41576, 'ProductName': 'aeg scb61824lf', 'Category': 'Fridge Freezers', 'Category ID': 2622, 'OrderID': 3231, 'CustomerID': 1927, 'OrderStatus': 'Cancelled', 'ReturnEligible': False, 'ShippingDate': '2024-10-20 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 21448, 'ProductName': 'panasonic dmc fz1000eb lumix bridge camera 25 400mm leica dc lens 20.1mp', 'Category': 'Digital Cameras', 'Category ID': 2617, 'OrderID': 1588, 'CustomerID': 868, 'OrderStatus': 'Pending', 'ReturnEligible': False, 'ShippingDate': '2024-10-08 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Can I exchange my Order ID 2111?</t>
+          <t>Can I exchange my Order ID 2443?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 25893, 'ProductName': 'swan green digital combination microwave 25l', 'Category': 'Microwaves', 'Category ID': 2618, 'OrderID': 2111, 'CustomerID': 547, 'OrderStatus': 'Delivered', 'ReturnEligible': False, 'ShippingDate': '2024-09-29 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 17894, 'ProductName': 'intel bx80532ke3066e processor 3.06 ghz 1 mb l2', 'Category': 'CPUs', 'Category ID': 2615, 'OrderID': 2443, 'CustomerID': 2440, 'OrderStatus': 'Pending', 'ReturnEligible': False, 'ShippingDate': '2024-10-14 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>What's the return policy for Order ID 2517?</t>
+          <t>What's the return policy for Order ID 2212?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 44062, 'ProductName': 'tall larder fridge', 'Category': 'Fridges', 'Category ID': 2623, 'OrderID': 2517, 'CustomerID': 1650, 'OrderStatus': 'Delivered', 'ReturnEligible': False, 'ShippingDate': '2024-10-15 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 13535, 'ProductName': '10 hd portable television august da100d', 'Category': 'TVs', 'Category ID': 2614, 'OrderID': 2212, 'CustomerID': 1191, 'OrderStatus': 'Delivered', 'ReturnEligible': True, 'ShippingDate': '2024-09-29 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Can I get a replacement for Order ID 3280?</t>
+          <t>My Order ID 1425 arrived damaged, can I return it?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 37418, 'ProductName': 'bosch kgv36vw32g fridge freezer', 'Category': 'Fridge Freezers', 'Category ID': 2622, 'OrderID': 3280, 'CustomerID': 1698, 'OrderStatus': 'Pending', 'ReturnEligible': False, 'ShippingDate': '2024-10-06 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 3714, 'ProductName': 'samsung galaxy s ii white mobile phone', 'Category': 'Mobile Phones', 'Category ID': 2612, 'OrderID': 1425, 'CustomerID': 2200, 'OrderStatus': 'Delivered', 'ReturnEligible': False, 'ShippingDate': '2024-10-09 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Is my Order ID 2772 refundable?</t>
+          <t>I received the wrong item in Order ID 1678, how do I return it?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 33849, 'ProductName': 'siemens iq700 wi14w440 eingebaut frontlader 8kg', 'Category': 'Washing Machines', 'Category ID': 2620, 'OrderID': 1136, 'CustomerID': 2244, 'OrderStatus': 'Cancelled', 'ReturnEligible': False, 'ShippingDate': '2024-10-11 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 37900, 'ProductName': 'lg gsl761wbxv american fridge freezer in black ice water a rated', 'Category': 'Fridge Freezers', 'Category ID': 2622, 'OrderID': 1678, 'CustomerID': 947, 'OrderStatus': 'Pending', 'ReturnEligible': False, 'ShippingDate': '2024-10-03 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Can I exchange my Order ID 3312?</t>
+          <t>Can I return part of my Order ID 1189?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 2762, 'ProductName': 'nokia asha 210 mobile phone microsdhc slot 320 x 240 pixels 169 ppi 2 mpix white', 'Category': 'Mobile Phones', 'Category ID': 2612, 'OrderID': 2759, 'CustomerID': 2434, 'OrderStatus': 'Pending', 'ReturnEligible': False, 'ShippingDate': '2024-10-22 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 1140, 'ProductName': 'sim free nokia 3.1 16gb mobile phone black/silver', 'Category': 'Mobile Phones', 'Category ID': 2612, 'OrderID': 1189, 'CustomerID': 577, 'OrderStatus': 'Pending', 'ReturnEligible': False, 'ShippingDate': '2024-10-23 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>What's the return policy for Order ID 1191?</t>
+          <t>Who pays for return shipping for Order ID 3279?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 43839, 'ProductName': 'beko ur584apw cooling fs fridge static white', 'Category': 'Fridges', 'Category ID': 2623, 'OrderID': 2530, 'CustomerID': 2132, 'OrderStatus': 'Pending', 'ReturnEligible': False, 'ShippingDate': '2024-10-08 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 12483, 'ProductName': 'lg electronics 50uk6950 fh fernseher ultra hd 4k', 'Category': 'TVs', 'Category ID': 2614, 'OrderID': 3279, 'CustomerID': 873, 'OrderStatus': 'Delivered', 'ReturnEligible': True, 'ShippingDate': '2024-10-09 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>My Order ID 3052 arrived damaged. What should I do?</t>
+          <t>Is there a restocking fee for returning Order ID 3124?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 37120, 'ProductName': 'caple rbf3', 'Category': 'Freezers', 'Category ID': 2621, 'OrderID': 1918, 'CustomerID': 746, 'OrderStatus': 'Shipped', 'ReturnEligible': False, 'ShippingDate': '2024-10-07 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 22525, 'ProductName': 'canon eos 1300d slr camera inc ef s 18 55mm f/3.5 5.6 is ii lens', 'Category': 'Digital Cameras', 'Category ID': 2617, 'OrderID': 3124, 'CustomerID': 803, 'OrderStatus': 'Pending', 'ReturnEligible': False, 'ShippingDate': '2024-10-02 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>My Order ID 3246 is missing an item. What are my options?</t>
+          <t>Can I return Order ID 1530 from another country?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 24091, 'ProductName': 'bosch bfl554ms0b/bfl554ms0b', 'Category': 'Microwaves', 'Category ID': 2618, 'OrderID': 2772, 'CustomerID': 232, 'OrderStatus': 'Shipped', 'ReturnEligible': False, 'ShippingDate': '2024-10-13 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 2352, 'ProductName': 'wiko jerry schwarz grau', 'Category': 'Mobile Phones', 'Category ID': 2612, 'OrderID': 1530, 'CustomerID': 812, 'OrderStatus': 'Delivered', 'ReturnEligible': True, 'ShippingDate': '2024-10-15 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Is my Order ID 1992 refundable?</t>
+          <t>Is my order 2594 refundable?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'orders': [{'Product ID': 22153, 'ProductName': 'sony a6000 mirrorless camera body', 'Category': 'Digital Cameras', 'Category ID': 2617, 'OrderID': 3312, 'CustomerID': 635, 'OrderStatus': 'Cancelled', 'ReturnEligible': False, 'ShippingDate': '2024-10-17 12:24:37.765490'}]}</t>
+          <t>{'orders': [{'Product ID': 46656, 'ProductName': 'amica einbau k hlschrank schleppt rtechnik eks 16171', 'Category': 'Fridges', 'Category ID': 2623, 'OrderID': 2286, 'CustomerID': 46, 'OrderStatus': 'Shipped', 'ReturnEligible': False, 'ShippingDate': '2024-10-07 12:24:37.765490'}]}</t>
         </is>
       </c>
     </row>
